--- a/jcc-check-in-ui/src/Data/ExampleData.xlsx
+++ b/jcc-check-in-ui/src/Data/ExampleData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkrantz/Desktop/jcc/jcc-check-in-ui/src/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkrantz/Desktop/jcc/jcc-check-in/jcc-check-in-ui/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD5A05-3CA0-844A-9F2D-2ECB75AD88D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5200EEB5-8F48-9542-87D1-7F4A2AF5D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{548B8094-9CBF-094A-958D-5A200ACDF577}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">  2022-12-28</t>
+  </si>
+  <si>
+    <t>Kelsey Krantz</t>
+  </si>
+  <si>
+    <t>YEs</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
   </si>
 </sst>
 </file>
@@ -424,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7225A37C-DE73-AF46-96ED-2D7CB5A77A0D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,6 +492,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8934</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jcc-check-in-ui/src/Data/ExampleData.xlsx
+++ b/jcc-check-in-ui/src/Data/ExampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkrantz/Desktop/jcc/jcc-check-in/jcc-check-in-ui/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5200EEB5-8F48-9542-87D1-7F4A2AF5D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A418A62-14EE-4240-8756-536969C11A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{548B8094-9CBF-094A-958D-5A200ACDF577}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>Person Person</t>
+  </si>
+  <si>
+    <t>First Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firsty Lasty </t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
   </si>
 </sst>
 </file>
@@ -433,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7225A37C-DE73-AF46-96ED-2D7CB5A77A0D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -451,7 +463,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -504,6 +516,33 @@
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>23478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3774</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
